--- a/Business Analysis/data/user_9.xlsx
+++ b/Business Analysis/data/user_9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A96600-FF9F-4284-9176-9655E1727678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441DD490-04A5-46B6-95AF-EB89B229D36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,9 +172,6 @@
     <t>Steppenwolf - Born to be wild</t>
   </si>
   <si>
-    <t>driving</t>
-  </si>
-  <si>
     <t>George Thorogood - Bad to the bone</t>
   </si>
   <si>
@@ -506,6 +503,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Legacy</t>
+  </si>
+  <si>
+    <t>commuting</t>
   </si>
 </sst>
 </file>
@@ -1348,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K55" sqref="K1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,39 +1361,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1402,30 +1402,30 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>9</v>
       </c>
       <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
         <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1434,30 +1434,30 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>9</v>
       </c>
       <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
         <v>81</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -1466,30 +1466,30 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>9</v>
       </c>
       <c r="I4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
         <v>83</v>
-      </c>
-      <c r="J4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -1498,30 +1498,30 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>9</v>
       </c>
       <c r="I5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
         <v>85</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -1530,30 +1530,30 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -1562,30 +1562,30 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7">
         <v>9</v>
       </c>
       <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
         <v>88</v>
-      </c>
-      <c r="J7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -1594,30 +1594,30 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>9</v>
       </c>
       <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
         <v>90</v>
-      </c>
-      <c r="J8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -1626,30 +1626,30 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9">
         <v>9</v>
       </c>
       <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
         <v>92</v>
-      </c>
-      <c r="J9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -1658,30 +1658,30 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
         <v>94</v>
-      </c>
-      <c r="J10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>40</v>
@@ -1690,30 +1690,30 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11">
         <v>9</v>
       </c>
       <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
         <v>96</v>
-      </c>
-      <c r="J11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -1722,30 +1722,30 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12">
         <v>9</v>
       </c>
       <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
         <v>98</v>
-      </c>
-      <c r="J12" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>40</v>
@@ -1754,30 +1754,30 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13">
         <v>9</v>
       </c>
       <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
         <v>100</v>
-      </c>
-      <c r="J13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>40</v>
@@ -1786,30 +1786,30 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14">
         <v>9</v>
       </c>
       <c r="I14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" t="s">
         <v>102</v>
-      </c>
-      <c r="J14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>40</v>
@@ -1818,13 +1818,13 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -1833,15 +1833,15 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>40</v>
@@ -1850,13 +1850,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1865,15 +1865,15 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>40</v>
@@ -1882,13 +1882,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1897,15 +1897,15 @@
         <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>40</v>
@@ -1914,13 +1914,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1929,15 +1929,15 @@
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>40</v>
@@ -1946,13 +1946,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -1961,15 +1961,15 @@
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>40</v>
@@ -1978,13 +1978,13 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1993,15 +1993,15 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>40</v>
@@ -2010,13 +2010,13 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -2025,15 +2025,15 @@
         <v>9</v>
       </c>
       <c r="I21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" t="s">
         <v>110</v>
-      </c>
-      <c r="J21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -2042,13 +2042,13 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -2057,15 +2057,15 @@
         <v>9</v>
       </c>
       <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" t="s">
         <v>112</v>
-      </c>
-      <c r="J22" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>40</v>
@@ -2074,13 +2074,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -2089,15 +2089,15 @@
         <v>9</v>
       </c>
       <c r="I23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" t="s">
         <v>114</v>
-      </c>
-      <c r="J23" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>40</v>
@@ -2106,13 +2106,13 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -2121,15 +2121,15 @@
         <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>40</v>
@@ -2138,13 +2138,13 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -2153,15 +2153,15 @@
         <v>9</v>
       </c>
       <c r="I25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" t="s">
         <v>117</v>
-      </c>
-      <c r="J25" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>40</v>
@@ -2170,13 +2170,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
@@ -2185,15 +2185,15 @@
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>40</v>
@@ -2202,13 +2202,13 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -2217,15 +2217,15 @@
         <v>9</v>
       </c>
       <c r="I27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" t="s">
         <v>120</v>
-      </c>
-      <c r="J27" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>40</v>
@@ -2234,13 +2234,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -2249,15 +2249,15 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>40</v>
@@ -2266,13 +2266,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -2281,15 +2281,15 @@
         <v>9</v>
       </c>
       <c r="I29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>40</v>
@@ -2298,13 +2298,13 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
@@ -2313,15 +2313,15 @@
         <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>40</v>
@@ -2330,13 +2330,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -2345,15 +2345,15 @@
         <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>40</v>
@@ -2362,13 +2362,13 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -2377,15 +2377,15 @@
         <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>40</v>
@@ -2394,13 +2394,13 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -2409,15 +2409,15 @@
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>40</v>
@@ -2426,13 +2426,13 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -2441,15 +2441,15 @@
         <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>40</v>
@@ -2458,13 +2458,13 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
@@ -2473,15 +2473,15 @@
         <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>40</v>
@@ -2490,13 +2490,13 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -2505,15 +2505,15 @@
         <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37">
         <v>40</v>
@@ -2522,13 +2522,13 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
@@ -2537,15 +2537,15 @@
         <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38">
         <v>40</v>
@@ -2554,13 +2554,13 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
@@ -2569,15 +2569,15 @@
         <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>40</v>
@@ -2586,13 +2586,13 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
@@ -2601,15 +2601,15 @@
         <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -2618,13 +2618,13 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
@@ -2633,15 +2633,15 @@
         <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -2650,13 +2650,13 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
@@ -2665,15 +2665,15 @@
         <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -2682,13 +2682,13 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
@@ -2697,15 +2697,15 @@
         <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -2714,13 +2714,13 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
@@ -2729,15 +2729,15 @@
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -2746,13 +2746,13 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
@@ -2761,15 +2761,15 @@
         <v>9</v>
       </c>
       <c r="I44" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" t="s">
         <v>138</v>
-      </c>
-      <c r="J44" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45">
         <v>40</v>
@@ -2778,13 +2778,13 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
@@ -2793,15 +2793,15 @@
         <v>9</v>
       </c>
       <c r="I45" t="s">
+        <v>139</v>
+      </c>
+      <c r="J45" t="s">
         <v>140</v>
-      </c>
-      <c r="J45" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46">
         <v>40</v>
@@ -2810,13 +2810,13 @@
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -2825,15 +2825,15 @@
         <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47">
         <v>40</v>
@@ -2842,13 +2842,13 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -2857,15 +2857,15 @@
         <v>9</v>
       </c>
       <c r="I47" t="s">
+        <v>142</v>
+      </c>
+      <c r="J47" t="s">
         <v>143</v>
-      </c>
-      <c r="J47" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -2874,13 +2874,13 @@
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
@@ -2889,15 +2889,15 @@
         <v>9</v>
       </c>
       <c r="I48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" t="s">
         <v>145</v>
-      </c>
-      <c r="J48" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -2906,13 +2906,13 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -2921,15 +2921,15 @@
         <v>9</v>
       </c>
       <c r="I49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" t="s">
         <v>147</v>
-      </c>
-      <c r="J49" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -2938,249 +2938,249 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="H50">
         <v>9</v>
       </c>
       <c r="I50" t="s">
+        <v>148</v>
+      </c>
+      <c r="J50" t="s">
         <v>149</v>
-      </c>
-      <c r="J50" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="H51">
         <v>9</v>
       </c>
       <c r="I51" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" t="s">
         <v>151</v>
-      </c>
-      <c r="J51" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="H52">
         <v>9</v>
       </c>
       <c r="I52" t="s">
+        <v>152</v>
+      </c>
+      <c r="J52" t="s">
         <v>153</v>
-      </c>
-      <c r="J52" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53">
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="H53">
         <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="H54">
         <v>9</v>
       </c>
       <c r="I54" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" t="s">
         <v>156</v>
-      </c>
-      <c r="J54" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="H55">
         <v>9</v>
       </c>
       <c r="I55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="H56">
         <v>9</v>
       </c>
       <c r="I56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="H57">
         <v>9</v>
       </c>
       <c r="I57" t="s">
+        <v>159</v>
+      </c>
+      <c r="J57" t="s">
         <v>160</v>
-      </c>
-      <c r="J57" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Business Analysis/data/user_9.xlsx
+++ b/Business Analysis/data/user_9.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epistimi\Documents\DataSience\Multimodal\emotion_based_music_recomendation\Business Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441DD490-04A5-46B6-95AF-EB89B229D36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
-    <sheet name="Template emotion_datasheet5-use" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -511,7 +513,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1036,8 +1038,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1345,21 +1375,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1391,7 +1421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1423,7 +1453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1455,7 +1485,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1487,7 +1517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1519,7 +1549,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1551,7 +1581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1583,7 +1613,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1615,7 +1645,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1647,7 +1677,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1679,7 +1709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1711,7 +1741,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1743,7 +1773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1775,7 +1805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1807,7 +1837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1839,7 +1869,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1871,7 +1901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1903,7 +1933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1935,7 +1965,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -1967,7 +1997,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1999,7 +2029,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -2031,7 +2061,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2063,7 +2093,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -2095,7 +2125,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2127,7 +2157,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2159,7 +2189,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -2191,7 +2221,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -2223,7 +2253,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -2255,7 +2285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2287,7 +2317,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2319,7 +2349,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2351,7 +2381,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2383,7 +2413,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2415,7 +2445,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2447,7 +2477,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -2479,7 +2509,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2511,7 +2541,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -2543,7 +2573,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -2575,7 +2605,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -2607,7 +2637,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -2639,7 +2669,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -2671,7 +2701,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -2703,7 +2733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -2735,7 +2765,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -2767,7 +2797,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -2799,7 +2829,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2831,7 +2861,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -2863,7 +2893,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2895,7 +2925,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2927,7 +2957,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2959,7 +2989,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2991,7 +3021,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -3023,7 +3053,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -3055,7 +3085,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3087,7 +3117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3119,7 +3149,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3151,7 +3181,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>64</v>
       </c>
